--- a/FinalProject_Predictions.xlsx
+++ b/FinalProject_Predictions.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t xml:space="preserve">eval_cub_pred</t>
+    <t xml:space="preserve">scaledeval_predictions</t>
   </si>
 </sst>
 </file>
@@ -353,1042 +353,1042 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.523245692253113</v>
+        <v>8.49157117069232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.09758949279785</v>
+        <v>8.58042104080588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.11179614067078</v>
+        <v>8.46921820713593</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.532465279102325</v>
+        <v>8.41835096377156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.578761279582977</v>
+        <v>8.59504832950462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.10211586952209</v>
+        <v>8.59097471332946</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.03350186347961</v>
+        <v>8.52210374189366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.03022599220276</v>
+        <v>8.48098605860599</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.14475440979004</v>
+        <v>8.28441744963332</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.11498820781708</v>
+        <v>8.58104526394107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.05607211589813</v>
+        <v>8.45003768312059</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.134452506899834</v>
+        <v>8.56061363041847</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.05463886260986</v>
+        <v>8.63684226930356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.05598402023315</v>
+        <v>8.60148447843427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.18722307682037</v>
+        <v>8.43023788455209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.06976306438446</v>
+        <v>8.56307050371205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.18073856830597</v>
+        <v>8.38696978658681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.886813223361969</v>
+        <v>8.4430590153585</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.176954656839371</v>
+        <v>8.51389471267916</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.186490803956985</v>
+        <v>8.61899406295467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.162573054432869</v>
+        <v>8.42188308424968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.53995418548584</v>
+        <v>8.49243358129159</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.591369152069092</v>
+        <v>8.4568239808615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.588394522666931</v>
+        <v>8.42303613214122</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.128707110881805</v>
+        <v>8.56532513424196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.379861861467361</v>
+        <v>8.65789431362516</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.626163005828857</v>
+        <v>8.39476490611721</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-1.19138407707214</v>
+        <v>8.38248065918645</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.936028063297272</v>
+        <v>8.51518766533955</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.111472025513649</v>
+        <v>8.53011302448638</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.105646416544914</v>
+        <v>8.57702813100977</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.00627434253693</v>
+        <v>8.5959069971764</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.43966543674469</v>
+        <v>8.59851780221954</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.499839305877686</v>
+        <v>8.5846757365231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.06867432594299</v>
+        <v>8.58887050426923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.00149369239807</v>
+        <v>8.66200306087673</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.112676620483398</v>
+        <v>8.58635703076529</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-0.984841763973236</v>
+        <v>8.32246478069927</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-0.686125934123993</v>
+        <v>8.47407050133166</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.997001826763153</v>
+        <v>8.46194322599372</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.04259204864502</v>
+        <v>8.63672913829153</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.1238044500351</v>
+        <v>8.60683898815381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.01338005065918</v>
+        <v>8.53690698417469</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.173578694462776</v>
+        <v>8.6636441392138</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.13924634456635</v>
+        <v>8.68227167139763</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.16089808940887</v>
+        <v>8.5728552964075</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.04154682159424</v>
+        <v>8.54811184012613</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.943166077136993</v>
+        <v>8.3585951776147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.956714749336243</v>
+        <v>8.41760122660114</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.91938328742981</v>
+        <v>8.51042870011563</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.94872373342514</v>
+        <v>8.33633796205127</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-0.859647631645203</v>
+        <v>8.29281034759066</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-1.06681954860687</v>
+        <v>8.24863450744398</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0983776748180389</v>
+        <v>8.50868866813272</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.0874898135662079</v>
+        <v>8.46333513744132</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-0.176242902874947</v>
+        <v>8.43762544657825</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-0.176977679133415</v>
+        <v>8.31083052809067</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.918125331401825</v>
+        <v>8.65186342914252</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-0.406808614730835</v>
+        <v>8.58175883147552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-0.345079988241196</v>
+        <v>8.5689834924051</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.441514939069748</v>
+        <v>8.65304384976211</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-0.921758949756622</v>
+        <v>8.54932093986729</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.587001085281372</v>
+        <v>8.65396530915584</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-0.845942318439484</v>
+        <v>8.61393039104136</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-0.421775162220001</v>
+        <v>8.61868299380266</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.372387707233429</v>
+        <v>8.55476209090349</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.00327622890472412</v>
+        <v>8.30114967232744</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.436159640550613</v>
+        <v>8.56487754720778</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.4072060585022</v>
+        <v>8.45034560060424</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.367612302303314</v>
+        <v>8.45418982365254</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.38419097661972</v>
+        <v>8.37724637044738</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-0.0558979734778404</v>
+        <v>8.46999299827024</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-0.422929286956787</v>
+        <v>8.50363523271483</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.384515315294266</v>
+        <v>8.53099435152248</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.421837359666824</v>
+        <v>8.57445314084709</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.529405057430267</v>
+        <v>8.60298306845707</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.526927590370178</v>
+        <v>8.60670948183396</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-1.02009379863739</v>
+        <v>8.419624412592</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1.25585579872131</v>
+        <v>8.38580053305312</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1.17774879932404</v>
+        <v>8.43007762761495</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.331927359104156</v>
+        <v>8.57258357940811</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.335018366575241</v>
+        <v>8.6071204634999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-0.304230362176895</v>
+        <v>8.39915819812108</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-0.450096666812897</v>
+        <v>8.55142321062578</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.366488069295883</v>
+        <v>8.58766512737204</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.368118524551392</v>
+        <v>8.56561267127971</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.68357586860657</v>
+        <v>8.50365960287466</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.402221202850342</v>
+        <v>8.58222640692509</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.417215257883072</v>
+        <v>8.53445052347717</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.354240894317627</v>
+        <v>8.51273879332471</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.350279688835144</v>
+        <v>8.62534179036346</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-0.497514307498932</v>
+        <v>8.57758413055088</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-0.502194225788116</v>
+        <v>8.54767424006956</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-1.0303966999054</v>
+        <v>8.46401028855505</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1.00783860683441</v>
+        <v>8.45627033607423</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-0.269277125597</v>
+        <v>8.46414934242486</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-0.269277125597</v>
+        <v>8.47243865692013</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1.04299795627594</v>
+        <v>8.46744312376807</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1.00555682182312</v>
+        <v>8.53170959000672</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-0.530489504337311</v>
+        <v>8.49734538186495</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-0.51996386051178</v>
+        <v>8.53959554172436</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-0.524318516254425</v>
+        <v>8.45652706593946</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-0.532772481441498</v>
+        <v>8.52646516374388</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1.06259882450104</v>
+        <v>8.44837959708547</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1.06159830093384</v>
+        <v>8.49309196635232</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1.06389009952545</v>
+        <v>8.47235750531616</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-0.542113602161407</v>
+        <v>8.60451937567239</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-0.531818866729736</v>
+        <v>8.58346247788435</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-0.531308591365814</v>
+        <v>8.58059983757347</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-0.509698450565338</v>
+        <v>8.61462130049684</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-0.991068542003632</v>
+        <v>8.46905972397625</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-0.504806160926819</v>
+        <v>8.69655863132843</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-0.922827959060669</v>
+        <v>8.4460213471038</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.928366422653198</v>
+        <v>8.48732054695117</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-0.927261590957642</v>
+        <v>8.4239022496783</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-0.499666184186935</v>
+        <v>8.53169652189411</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-0.49917459487915</v>
+        <v>8.55147840788099</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-0.511233270168304</v>
+        <v>8.55074280983772</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-0.499908000230789</v>
+        <v>8.62928444520713</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-0.488342761993408</v>
+        <v>8.60030330203125</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-0.489412099123001</v>
+        <v>8.63528618832564</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-0.992434024810791</v>
+        <v>8.43951710568537</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-0.269277125597</v>
+        <v>8.77014352689421</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-0.596101045608521</v>
+        <v>8.72192043044778</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-0.269277125597</v>
+        <v>8.78520866613133</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-0.513139665126801</v>
+        <v>8.25727219697306</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-0.509496450424194</v>
+        <v>8.49217077945194</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-0.512327253818512</v>
+        <v>8.49037395317143</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-0.511342644691467</v>
+        <v>8.51319229937715</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-0.513349592685699</v>
+        <v>8.41954787795079</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-0.498143166303635</v>
+        <v>8.49136165929712</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-0.490915536880493</v>
+        <v>8.41914151324762</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-0.489964306354523</v>
+        <v>8.42516370879141</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-0.269277125597</v>
+        <v>8.54705023528252</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-0.497599005699158</v>
+        <v>8.52230209648573</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-0.496388584375381</v>
+        <v>8.48397598415886</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.954833328723907</v>
+        <v>8.34522766165513</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-0.942211449146271</v>
+        <v>8.31152953008445</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-1.24309813976288</v>
+        <v>8.43762165223691</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-0.521439135074615</v>
+        <v>8.41633155155651</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-1.03806555271149</v>
+        <v>8.39536677708575</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-1.01677286624908</v>
+        <v>8.35729504501166</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-0.501272976398468</v>
+        <v>8.45141532722778</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-1.24309813976288</v>
+        <v>8.44945169902839</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-0.967881739139557</v>
+        <v>8.36086588011078</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-0.538418114185333</v>
+        <v>8.26911969362161</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-1.01837801933289</v>
+        <v>8.23904835597276</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-1.00801587104797</v>
+        <v>8.26527239602572</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-1.01008093357086</v>
+        <v>8.20155789848318</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-0.499225854873657</v>
+        <v>8.45814181010804</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-0.705478429794312</v>
+        <v>8.4370817760758</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-1.24309813976288</v>
+        <v>8.48340680210935</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-1.11122095584869</v>
+        <v>8.40921227722666</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-0.559684455394745</v>
+        <v>8.41257818704505</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-0.269277125597</v>
+        <v>8.50025053627955</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-0.269277125597</v>
+        <v>8.54099749076008</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-1.04032981395721</v>
+        <v>8.40232502327087</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-1.03445637226105</v>
+        <v>8.27926473409171</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-1.66744124889374</v>
+        <v>8.32383020887825</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-1.68194317817688</v>
+        <v>8.33081819282802</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-1.68899190425873</v>
+        <v>8.47929893917582</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-0.530971944332123</v>
+        <v>8.47502567792121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-1.03354513645172</v>
+        <v>8.44888717507272</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1.0267927646637</v>
+        <v>8.52861705271335</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.528587639331818</v>
+        <v>8.35851674066144</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-0.507399499416351</v>
+        <v>8.28408110029652</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-0.269277125597</v>
+        <v>8.51283697833364</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-0.269277125597</v>
+        <v>8.5128324796227</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-0.532090425491333</v>
+        <v>8.43711790972207</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-0.531019687652588</v>
+        <v>8.43025078942576</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-0.520878970623016</v>
+        <v>8.47731399994003</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1.67061948776245</v>
+        <v>8.39984696876083</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-0.269277125597</v>
+        <v>8.58209583119739</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-1.02925598621368</v>
+        <v>8.46072774113572</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-0.501906454563141</v>
+        <v>8.3993225887309</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-0.509518027305603</v>
+        <v>8.44443181628203</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-0.509532332420349</v>
+        <v>8.47171142358718</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-0.494434595108032</v>
+        <v>8.45973173681638</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-0.488220661878586</v>
+        <v>8.44039816408416</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-0.269277125597</v>
+        <v>8.56726894369165</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-0.269277125597</v>
+        <v>8.57595935554226</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-0.988104462623596</v>
+        <v>8.52809100944571</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-0.508862674236298</v>
+        <v>8.62582222184355</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-0.527563333511353</v>
+        <v>8.69308598637962</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-0.523280441761017</v>
+        <v>8.47154111524445</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-0.522925317287445</v>
+        <v>8.50059452057149</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-0.500663340091705</v>
+        <v>8.45734128634715</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.269277125597</v>
+        <v>8.55475839489112</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-0.996317327022552</v>
+        <v>8.52312474105099</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-0.475106298923492</v>
+        <v>8.37188312551655</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-0.478245466947556</v>
+        <v>8.40491631162061</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-0.480150461196899</v>
+        <v>8.39225497502679</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-0.269277125597</v>
+        <v>8.53512259425924</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-0.540400564670563</v>
+        <v>8.43272532722919</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-0.487091988325119</v>
+        <v>8.3809113751346</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-0.269277125597</v>
+        <v>8.49355668576311</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-0.269277125597</v>
+        <v>8.53099670499097</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-1.00431632995605</v>
+        <v>8.43280638628825</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-0.269277125597</v>
+        <v>8.62358631109253</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-0.517672836780548</v>
+        <v>8.4409231507974</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-0.534008800983429</v>
+        <v>8.49130420947307</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-0.269277125597</v>
+        <v>8.60169456052309</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-0.269277125597</v>
+        <v>8.62047263756982</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-0.53670597076416</v>
+        <v>8.50071866442789</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-0.269277125597</v>
+        <v>8.63505639931221</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-1.70511090755463</v>
+        <v>8.42438546778848</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-1.68718683719635</v>
+        <v>8.40550123658772</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-1.67289388179779</v>
+        <v>8.12500374058655</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject_Predictions.xlsx
+++ b/FinalProject_Predictions.xlsx
@@ -353,1042 +353,1042 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.49157117069232</v>
+        <v>8.63591698472018</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8.58042104080588</v>
+        <v>8.73500060474219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.46921820713593</v>
+        <v>8.73745148189677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8.41835096377156</v>
+        <v>8.63750751297044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.59504832950462</v>
+        <v>8.64549432385934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.59097471332946</v>
+        <v>8.7357814781337</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>8.52210374189366</v>
+        <v>8.72394444934283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.48098605860599</v>
+        <v>8.72337930842109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8.28441744963332</v>
+        <v>8.34815991630444</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>8.58104526394107</v>
+        <v>8.73800216524689</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.45003768312059</v>
+        <v>8.72783818391839</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.56061363041847</v>
+        <v>8.56884385498822</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.63684226930356</v>
+        <v>8.72759092448236</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.60148447843427</v>
+        <v>8.72782298598749</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8.43023788455209</v>
+        <v>8.75046385161989</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.56307050371205</v>
+        <v>8.73020009456542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.38696978658681</v>
+        <v>8.34195206538689</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>8.4430590153585</v>
+        <v>8.39265895412782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.51389471267916</v>
+        <v>8.57617616513195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8.61899406295467</v>
+        <v>8.57782130516233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.42188308424968</v>
+        <v>8.57369510548301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.49243358129159</v>
+        <v>8.63879947077304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.4568239808615</v>
+        <v>8.64766938633153</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.42303613214122</v>
+        <v>8.64715621451857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.56532513424196</v>
+        <v>8.56785268099907</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.65789431362516</v>
+        <v>8.61118094858051</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.39476490611721</v>
+        <v>8.43762534375057</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.38248065918645</v>
+        <v>8.34011554248104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.51518766533955</v>
+        <v>8.70712863802876</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>8.53011302448638</v>
+        <v>8.56487934926284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>8.57702813100977</v>
+        <v>8.56387433723885</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>8.5959069971764</v>
+        <v>8.71924726041755</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>8.59851780221954</v>
+        <v>8.6214980351811</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>8.5846757365231</v>
+        <v>8.63187900347705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8.58887050426923</v>
+        <v>8.73001226952763</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>8.66200306087673</v>
+        <v>8.71842252073834</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>8.58635703076529</v>
+        <v>8.56508716143066</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.32246478069927</v>
+        <v>8.37574744109325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.47407050133166</v>
+        <v>8.42728076617009</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>8.46194322599372</v>
+        <v>8.71764760106943</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>8.63672913829153</v>
+        <v>8.72551265370406</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.60683898815381</v>
+        <v>8.73952311000702</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.53690698417469</v>
+        <v>8.72047311030555</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>8.6636441392138</v>
+        <v>8.57559375687228</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>8.68227167139763</v>
+        <v>8.74218708724279</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8.5728552964075</v>
+        <v>8.74592236436558</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.54811184012613</v>
+        <v>8.72533233508682</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8.3585951776147</v>
+        <v>8.70836006117695</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>8.41760122660114</v>
+        <v>8.71069742685708</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.51042870011563</v>
+        <v>8.70425714425476</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.33633796205127</v>
+        <v>8.70931884701801</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.29281034759066</v>
+        <v>8.3973454592573</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>8.24863450744398</v>
+        <v>8.36160494376816</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>8.50868866813272</v>
+        <v>8.56262036141005</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>8.46333513744132</v>
+        <v>8.56074202877008</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>8.43762544657825</v>
+        <v>8.51524385809523</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.31083052809067</v>
+        <v>8.5151170972744</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.65186342914252</v>
+        <v>8.70404012643901</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>8.58175883147552</v>
+        <v>8.47546753359766</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>8.5689834924051</v>
+        <v>8.48611672275192</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8.65304384976211</v>
+        <v>8.6218171043265</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>8.54932093986729</v>
+        <v>8.38663024959197</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>8.65396530915584</v>
+        <v>8.44438141015396</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>8.61393039104136</v>
+        <v>8.39970984805138</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>8.61868299380266</v>
+        <v>8.4728855614356</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>8.55476209090349</v>
+        <v>8.60989153576296</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8.30114967232744</v>
+        <v>8.54621381968107</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.56487754720778</v>
+        <v>8.62089322848233</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8.45034560060424</v>
+        <v>8.78841448353686</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>8.45418982365254</v>
+        <v>8.60906770096732</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.37724637044738</v>
+        <v>8.61192779115177</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>8.46999299827024</v>
+        <v>8.53600531011168</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>8.50363523271483</v>
+        <v>8.47268645620147</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8.53099435152248</v>
+        <v>8.6119837448331</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>8.57445314084709</v>
+        <v>8.6184224027581</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>8.60298306845707</v>
+        <v>8.63697957510283</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8.60670948183396</v>
+        <v>8.63655217185661</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8.419624412592</v>
+        <v>8.36966589341335</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>8.38580053305312</v>
+        <v>8.32899312492558</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>8.43007762761495</v>
+        <v>8.34246784902289</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>8.57258357940811</v>
+        <v>8.60291146954444</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>8.6071204634999</v>
+        <v>8.60344471846166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8.39915819812108</v>
+        <v>8.49316394572736</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>8.55142321062578</v>
+        <v>8.46799964258896</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8.58766512737204</v>
+        <v>8.60887375254128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.56561267127971</v>
+        <v>8.60915503251478</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.50365960287466</v>
+        <v>9.1811251928368</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.58222640692509</v>
+        <v>8.61503829758198</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.53445052347717</v>
+        <v>8.61762501524141</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.51273879332471</v>
+        <v>8.60676091623881</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.62534179036346</v>
+        <v>8.60607754405218</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.57758413055088</v>
+        <v>8.45981933057442</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.54767424006956</v>
+        <v>8.4590119687729</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.46401028855505</v>
+        <v>8.36788847585719</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.45627033607423</v>
+        <v>8.3717801127481</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.46414934242486</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.47243865692013</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.46744312376807</v>
+        <v>8.36571455477223</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.53170959000672</v>
+        <v>8.37217375766742</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.49734538186495</v>
+        <v>8.45413057434411</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.53959554172436</v>
+        <v>8.45594641860378</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.45652706593946</v>
+        <v>8.45519516986649</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.52646516374388</v>
+        <v>8.45373672376943</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.44837959708547</v>
+        <v>8.36233308712606</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.49309196635232</v>
+        <v>8.36250569366741</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.47235750531616</v>
+        <v>8.36211032124308</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.60451937567239</v>
+        <v>8.4521252289555</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.58346247788435</v>
+        <v>8.45390123777247</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.58059983757347</v>
+        <v>8.45398926854814</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.61462130049684</v>
+        <v>8.45771736829896</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.46905972397625</v>
+        <v>8.37467322090015</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.69655863132843</v>
+        <v>8.45856136760238</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.4460213471038</v>
+        <v>8.38644582815035</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.48732054695117</v>
+        <v>8.38549035336054</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8.4239022496783</v>
+        <v>8.38568095474564</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>8.53169652189411</v>
+        <v>8.45944809694765</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>8.55147840788099</v>
+        <v>8.4595329040756</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>8.55074280983772</v>
+        <v>8.45745258702649</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>8.62928444520713</v>
+        <v>8.45940637975843</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>8.60030330203125</v>
+        <v>8.46140157091378</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>8.63528618832564</v>
+        <v>8.46121709291693</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>8.43951710568537</v>
+        <v>8.37443765297118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>8.77014352689421</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>8.72192043044778</v>
+        <v>8.44281151941881</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>8.78520866613133</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>8.25727219697306</v>
+        <v>8.45712370297917</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>8.49217077945194</v>
+        <v>8.45775221659925</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>8.49037395317143</v>
+        <v>8.45726385710514</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>8.51319229937715</v>
+        <v>8.45743371814747</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>8.41954787795079</v>
+        <v>8.45708748707075</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8.49136165929712</v>
+        <v>8.45971084223208</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>8.41914151324762</v>
+        <v>8.46095772552174</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>8.42516370879141</v>
+        <v>8.46112182821407</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>8.54705023528252</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>8.52230209648573</v>
+        <v>8.45980471876128</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>8.48397598415886</v>
+        <v>8.46001353606966</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8.34522766165513</v>
+        <v>8.38092438283595</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>8.31152953008445</v>
+        <v>8.38310186175858</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>8.43762165223691</v>
+        <v>8.33119402799341</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8.41633155155651</v>
+        <v>8.45569190981641</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8.39536677708575</v>
+        <v>8.36656547437842</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>8.35729504501166</v>
+        <v>8.3702388081076</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>8.45141532722778</v>
+        <v>8.45917089923298</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.44945169902839</v>
+        <v>8.33119402799341</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>8.36086588011078</v>
+        <v>8.37867332042648</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>8.26911969362161</v>
+        <v>8.452762760563</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.23904835597276</v>
+        <v>8.36996189316905</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>8.26527239602572</v>
+        <v>8.37174953179647</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>8.20155789848318</v>
+        <v>8.3713932750211</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>8.45814181010804</v>
+        <v>8.45952406089523</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8.4370817760758</v>
+        <v>8.42394214681761</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8.48340680210935</v>
+        <v>8.33119402799341</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8.40921227722666</v>
+        <v>8.35394498093855</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8.41257818704505</v>
+        <v>8.44909397181721</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>8.50025053627955</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>8.54099749076008</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>8.40232502327087</v>
+        <v>8.36617485259284</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>8.27926473409171</v>
+        <v>8.36718811653805</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8.32383020887825</v>
+        <v>8.25798795987846</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>8.33081819282802</v>
+        <v>8.25548614189189</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8.47929893917582</v>
+        <v>8.25427012232996</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>8.47502567792121</v>
+        <v>8.45404734562103</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>8.44888717507272</v>
+        <v>8.36734531949313</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>8.52861705271335</v>
+        <v>8.36851021313325</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>8.35851674066144</v>
+        <v>8.45445867690108</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>8.28408110029652</v>
+        <v>8.45811397465543</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>8.51283697833364</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>8.5128324796227</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>8.43711790972207</v>
+        <v>8.45385438948208</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>8.43025078942576</v>
+        <v>8.45403910912397</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>8.47731399994003</v>
+        <v>8.45578854726878</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>8.39984696876083</v>
+        <v>8.25743966213047</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>8.58209583119739</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>8.46072774113572</v>
+        <v>8.36808526746855</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>8.3993225887309</v>
+        <v>8.45906161397614</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.44443181628203</v>
+        <v>8.45774849423728</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8.47171142358718</v>
+        <v>8.457746026373</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>8.45973173681638</v>
+        <v>8.46035063090712</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>8.44039816408416</v>
+        <v>8.46142263516374</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8.56726894369165</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>8.57595935554226</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>8.52809100944571</v>
+        <v>8.3751845726632</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>8.62582222184355</v>
+        <v>8.45786155326993</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>8.69308598637962</v>
+        <v>8.4546353862668</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>8.47154111524445</v>
+        <v>8.45537425455159</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>8.50059452057149</v>
+        <v>8.45543551928252</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>8.45734128634715</v>
+        <v>8.45927607138269</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>8.55475839489112</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>8.52312474105099</v>
+        <v>8.37376772036215</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8.37188312551655</v>
+        <v>8.46368507545585</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>8.40491631162061</v>
+        <v>8.4631435180622</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>8.39225497502679</v>
+        <v>8.46281487565992</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8.53512259425924</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>8.43272532722919</v>
+        <v>8.45242075570388</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>8.3809113751346</v>
+        <v>8.461617349656</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>8.49355668576311</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>8.53099670499097</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>8.43280638628825</v>
+        <v>8.37238776263219</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>8.62358631109253</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>8.4409231507974</v>
+        <v>8.45634165735213</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>8.49130420947307</v>
+        <v>8.45352343859842</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>8.60169456052309</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8.62047263756982</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>8.50071866442789</v>
+        <v>8.45305813306986</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>8.63505639931221</v>
+        <v>8.49919394589196</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>8.42438546778848</v>
+        <v>8.25148933285128</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>8.40550123658772</v>
+        <v>8.25458152567192</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>8.12500374058655</v>
+        <v>8.25704729227436</v>
       </c>
     </row>
   </sheetData>
